--- a/utilities/Excel_Sheets/Products/EO_MISC.xlsx
+++ b/utilities/Excel_Sheets/Products/EO_MISC.xlsx
@@ -670,10 +670,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -748,7 +748,8 @@
         <v>1</v>
       </c>
       <c r="C2" s="6">
-        <v>43152</v>
+        <f ca="1">TODAY()</f>
+        <v>43187</v>
       </c>
       <c r="D2" s="4">
         <v>0</v>
@@ -772,7 +773,7 @@
         <v>6</v>
       </c>
       <c r="K2" s="5">
-        <v>1000000</v>
+        <v>525000</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>25</v>

--- a/utilities/Excel_Sheets/Products/EO_MISC.xlsx
+++ b/utilities/Excel_Sheets/Products/EO_MISC.xlsx
@@ -9,15 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10575" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test_Cases" sheetId="1" r:id="rId1"/>
-    <sheet name="Test_Regressions" sheetId="5" r:id="rId2"/>
+    <sheet name="Regression" sheetId="5" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Regression!$A$1:$N$108</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Test_Cases!$A$1:$N$59</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Test_Regressions!$A$1:$N$107</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="78">
   <si>
     <t>Test_Scenario</t>
   </si>
@@ -117,9 +117,6 @@
   </si>
   <si>
     <t>PCI_Property_Managers_Less_Than_100K_records</t>
-  </si>
-  <si>
-    <t>PCI_Title/Escrow_Services_Less_Than_100K_records</t>
   </si>
   <si>
     <t>PCI_Title/Escrow_Services_100K_to_250K_records</t>
@@ -670,10 +667,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -742,14 +739,14 @@
     </row>
     <row r="2" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
       </c>
       <c r="C2" s="6">
         <f ca="1">TODAY()</f>
-        <v>43187</v>
+        <v>43262</v>
       </c>
       <c r="D2" s="4">
         <v>0</v>
@@ -764,7 +761,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>5</v>
@@ -779,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N2" s="4">
         <v>0</v>
@@ -1691,12 +1688,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:N107"/>
+  <dimension ref="A1:N108"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1763,15 +1760,16 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
       </c>
       <c r="C2" s="6">
-        <v>43004</v>
+        <f ca="1">TODAY()</f>
+        <v>43262</v>
       </c>
       <c r="D2" s="4">
         <v>0</v>
@@ -1786,7 +1784,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>5</v>
@@ -1795,65 +1793,37 @@
         <v>6</v>
       </c>
       <c r="K2" s="5">
-        <v>1000000</v>
+        <v>525000</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2" s="4">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="N2" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="4">
-        <v>1</v>
-      </c>
-      <c r="C3" s="6">
-        <v>43004</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0</v>
-      </c>
-      <c r="E3" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F3" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G3" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K3" s="5">
-        <v>1000000</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="4">
-        <v>0</v>
-      </c>
-      <c r="N3" s="4">
-        <v>0</v>
-      </c>
+      <c r="A3" s="3"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B4" s="4">
         <v>1</v>
@@ -1886,7 +1856,7 @@
         <v>1000000</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M4" s="4">
         <v>0</v>
@@ -1897,7 +1867,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
@@ -1930,7 +1900,7 @@
         <v>1000000</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M5" s="4">
         <v>0</v>
@@ -1941,7 +1911,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B6" s="4">
         <v>1</v>
@@ -1974,7 +1944,7 @@
         <v>1000000</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M6" s="4">
         <v>0</v>
@@ -1983,9 +1953,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B7" s="4">
         <v>1</v>
@@ -2006,7 +1976,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>5</v>
@@ -2018,7 +1988,7 @@
         <v>1000000</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M7" s="4">
         <v>0</v>
@@ -2029,7 +1999,7 @@
     </row>
     <row r="8" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B8" s="4">
         <v>1</v>
@@ -2062,7 +2032,7 @@
         <v>1000000</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M8" s="4">
         <v>0</v>
@@ -2073,7 +2043,7 @@
     </row>
     <row r="9" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B9" s="4">
         <v>1</v>
@@ -2106,7 +2076,7 @@
         <v>1000000</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M9" s="4">
         <v>0</v>
@@ -2117,7 +2087,7 @@
     </row>
     <row r="10" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B10" s="4">
         <v>1</v>
@@ -2150,7 +2120,7 @@
         <v>1000000</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M10" s="4">
         <v>0</v>
@@ -2161,7 +2131,7 @@
     </row>
     <row r="11" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B11" s="4">
         <v>1</v>
@@ -2194,7 +2164,7 @@
         <v>1000000</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M11" s="4">
         <v>0</v>
@@ -2203,9 +2173,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B12" s="4">
         <v>1</v>
@@ -2226,7 +2196,7 @@
         <v>1</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>5</v>
@@ -2238,7 +2208,7 @@
         <v>1000000</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M12" s="4">
         <v>0</v>
@@ -2249,7 +2219,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B13" s="4">
         <v>1</v>
@@ -2282,7 +2252,7 @@
         <v>1000000</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M13" s="4">
         <v>0</v>
@@ -2293,7 +2263,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B14" s="4">
         <v>1</v>
@@ -2326,7 +2296,7 @@
         <v>1000000</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M14" s="4">
         <v>0</v>
@@ -2337,7 +2307,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B15" s="4">
         <v>1</v>
@@ -2370,7 +2340,7 @@
         <v>1000000</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M15" s="4">
         <v>0</v>
@@ -2381,7 +2351,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B16" s="4">
         <v>1</v>
@@ -2414,7 +2384,7 @@
         <v>1000000</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M16" s="4">
         <v>0</v>
@@ -2423,9 +2393,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B17" s="4">
         <v>1</v>
@@ -2446,7 +2416,7 @@
         <v>1</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>5</v>
@@ -2458,7 +2428,7 @@
         <v>1000000</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M17" s="4">
         <v>0</v>
@@ -2469,7 +2439,7 @@
     </row>
     <row r="18" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B18" s="4">
         <v>1</v>
@@ -2502,7 +2472,7 @@
         <v>1000000</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M18" s="4">
         <v>0</v>
@@ -2513,7 +2483,7 @@
     </row>
     <row r="19" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B19" s="4">
         <v>1</v>
@@ -2546,7 +2516,7 @@
         <v>1000000</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M19" s="4">
         <v>0</v>
@@ -2557,7 +2527,7 @@
     </row>
     <row r="20" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="B20" s="4">
         <v>1</v>
@@ -2590,7 +2560,7 @@
         <v>1000000</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M20" s="4">
         <v>0</v>
@@ -2601,7 +2571,7 @@
     </row>
     <row r="21" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B21" s="4">
         <v>1</v>
@@ -2634,7 +2604,7 @@
         <v>1000000</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M21" s="4">
         <v>0</v>
@@ -2643,9 +2613,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="B22" s="4">
         <v>1</v>
@@ -2666,7 +2636,7 @@
         <v>1</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>5</v>
@@ -2678,7 +2648,7 @@
         <v>1000000</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M22" s="4">
         <v>0</v>
@@ -2687,9 +2657,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B23" s="4">
         <v>1</v>
@@ -2722,7 +2692,7 @@
         <v>1000000</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M23" s="4">
         <v>0</v>
@@ -2731,9 +2701,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B24" s="4">
         <v>1</v>
@@ -2766,7 +2736,7 @@
         <v>1000000</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M24" s="4">
         <v>0</v>
@@ -2777,7 +2747,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B25" s="4">
         <v>1</v>
@@ -2810,7 +2780,7 @@
         <v>1000000</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M25" s="4">
         <v>0</v>
@@ -2821,7 +2791,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B26" s="4">
         <v>1</v>
@@ -2854,62 +2824,62 @@
         <v>1000000</v>
       </c>
       <c r="L26" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M26" s="4">
+        <v>0</v>
+      </c>
+      <c r="N26" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="4">
+        <v>1</v>
+      </c>
+      <c r="C27" s="6">
+        <v>43004</v>
+      </c>
+      <c r="D27" s="4">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F27" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G27" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K27" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="L27" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="M26" s="4">
-        <v>0</v>
-      </c>
-      <c r="N26" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B27" s="8">
-        <v>2</v>
-      </c>
-      <c r="C27" s="9">
-        <v>43004</v>
-      </c>
-      <c r="D27" s="8">
-        <v>0</v>
-      </c>
-      <c r="E27" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F27" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G27" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H27" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I27" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="K27" s="10">
-        <v>1000000</v>
-      </c>
-      <c r="L27" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M27" s="8">
-        <v>0</v>
-      </c>
-      <c r="N27" s="8">
+      <c r="M27" s="4">
+        <v>0</v>
+      </c>
+      <c r="N27" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B28" s="8">
         <v>2</v>
@@ -2942,7 +2912,7 @@
         <v>1000000</v>
       </c>
       <c r="L28" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M28" s="8">
         <v>0</v>
@@ -2953,7 +2923,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B29" s="8">
         <v>2</v>
@@ -2986,7 +2956,7 @@
         <v>1000000</v>
       </c>
       <c r="L29" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M29" s="8">
         <v>0</v>
@@ -2997,7 +2967,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B30" s="8">
         <v>2</v>
@@ -3030,7 +3000,7 @@
         <v>1000000</v>
       </c>
       <c r="L30" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M30" s="8">
         <v>0</v>
@@ -3041,7 +3011,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B31" s="8">
         <v>2</v>
@@ -3074,7 +3044,7 @@
         <v>1000000</v>
       </c>
       <c r="L31" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M31" s="8">
         <v>0</v>
@@ -3085,7 +3055,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B32" s="8">
         <v>2</v>
@@ -3106,7 +3076,7 @@
         <v>1</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I32" s="7" t="s">
         <v>5</v>
@@ -3118,7 +3088,7 @@
         <v>1000000</v>
       </c>
       <c r="L32" s="8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M32" s="8">
         <v>0</v>
@@ -3129,7 +3099,7 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B33" s="8">
         <v>2</v>
@@ -3162,7 +3132,7 @@
         <v>1000000</v>
       </c>
       <c r="L33" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M33" s="8">
         <v>0</v>
@@ -3173,7 +3143,7 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B34" s="8">
         <v>2</v>
@@ -3206,7 +3176,7 @@
         <v>1000000</v>
       </c>
       <c r="L34" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M34" s="8">
         <v>0</v>
@@ -3217,7 +3187,7 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B35" s="8">
         <v>2</v>
@@ -3250,7 +3220,7 @@
         <v>1000000</v>
       </c>
       <c r="L35" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M35" s="8">
         <v>0</v>
@@ -3261,7 +3231,7 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B36" s="8">
         <v>2</v>
@@ -3294,7 +3264,7 @@
         <v>1000000</v>
       </c>
       <c r="L36" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M36" s="8">
         <v>0</v>
@@ -3305,7 +3275,7 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B37" s="8">
         <v>2</v>
@@ -3326,7 +3296,7 @@
         <v>1</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I37" s="7" t="s">
         <v>5</v>
@@ -3338,7 +3308,7 @@
         <v>1000000</v>
       </c>
       <c r="L37" s="8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M37" s="8">
         <v>0</v>
@@ -3349,7 +3319,7 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B38" s="8">
         <v>2</v>
@@ -3382,7 +3352,7 @@
         <v>1000000</v>
       </c>
       <c r="L38" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M38" s="8">
         <v>0</v>
@@ -3393,7 +3363,7 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B39" s="8">
         <v>2</v>
@@ -3426,7 +3396,7 @@
         <v>1000000</v>
       </c>
       <c r="L39" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M39" s="8">
         <v>0</v>
@@ -3437,7 +3407,7 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B40" s="8">
         <v>2</v>
@@ -3470,7 +3440,7 @@
         <v>1000000</v>
       </c>
       <c r="L40" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M40" s="8">
         <v>0</v>
@@ -3481,7 +3451,7 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B41" s="8">
         <v>2</v>
@@ -3514,7 +3484,7 @@
         <v>1000000</v>
       </c>
       <c r="L41" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M41" s="8">
         <v>0</v>
@@ -3525,7 +3495,7 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B42" s="8">
         <v>2</v>
@@ -3546,7 +3516,7 @@
         <v>1</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I42" s="7" t="s">
         <v>5</v>
@@ -3558,7 +3528,7 @@
         <v>1000000</v>
       </c>
       <c r="L42" s="8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M42" s="8">
         <v>0</v>
@@ -3569,7 +3539,7 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B43" s="8">
         <v>2</v>
@@ -3602,7 +3572,7 @@
         <v>1000000</v>
       </c>
       <c r="L43" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M43" s="8">
         <v>0</v>
@@ -3613,7 +3583,7 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B44" s="8">
         <v>2</v>
@@ -3646,7 +3616,7 @@
         <v>1000000</v>
       </c>
       <c r="L44" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M44" s="8">
         <v>0</v>
@@ -3657,7 +3627,7 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B45" s="8">
         <v>2</v>
@@ -3690,7 +3660,7 @@
         <v>1000000</v>
       </c>
       <c r="L45" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M45" s="8">
         <v>0</v>
@@ -3701,7 +3671,7 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B46" s="8">
         <v>2</v>
@@ -3734,7 +3704,7 @@
         <v>1000000</v>
       </c>
       <c r="L46" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M46" s="8">
         <v>0</v>
@@ -3745,7 +3715,7 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B47" s="8">
         <v>2</v>
@@ -3766,7 +3736,7 @@
         <v>1</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I47" s="7" t="s">
         <v>5</v>
@@ -3778,7 +3748,7 @@
         <v>1000000</v>
       </c>
       <c r="L47" s="8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M47" s="8">
         <v>0</v>
@@ -3789,7 +3759,7 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B48" s="8">
         <v>2</v>
@@ -3822,7 +3792,7 @@
         <v>1000000</v>
       </c>
       <c r="L48" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M48" s="8">
         <v>0</v>
@@ -3833,7 +3803,7 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B49" s="8">
         <v>2</v>
@@ -3866,7 +3836,7 @@
         <v>1000000</v>
       </c>
       <c r="L49" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M49" s="8">
         <v>0</v>
@@ -3877,7 +3847,7 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B50" s="8">
         <v>2</v>
@@ -3910,7 +3880,7 @@
         <v>1000000</v>
       </c>
       <c r="L50" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M50" s="8">
         <v>0</v>
@@ -3921,7 +3891,7 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B51" s="8">
         <v>2</v>
@@ -3954,30 +3924,58 @@
         <v>1000000</v>
       </c>
       <c r="L51" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="M51" s="8">
+        <v>0</v>
+      </c>
+      <c r="N51" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A52" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B52" s="8">
+        <v>2</v>
+      </c>
+      <c r="C52" s="9">
+        <v>43004</v>
+      </c>
+      <c r="D52" s="8">
+        <v>0</v>
+      </c>
+      <c r="E52" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F52" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G52" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I52" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J52" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K52" s="10">
+        <v>1000000</v>
+      </c>
+      <c r="L52" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="M51" s="8">
-        <v>0</v>
-      </c>
-      <c r="N51" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A52"/>
-      <c r="B52"/>
-      <c r="C52"/>
-      <c r="D52"/>
-      <c r="E52"/>
-      <c r="F52"/>
-      <c r="G52"/>
-      <c r="H52"/>
-      <c r="I52"/>
-      <c r="J52"/>
-      <c r="K52"/>
-      <c r="L52"/>
-      <c r="M52"/>
-      <c r="N52"/>
+      <c r="M52" s="8">
+        <v>0</v>
+      </c>
+      <c r="N52" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="53" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A53"/>
@@ -4859,8 +4857,24 @@
       <c r="M107"/>
       <c r="N107"/>
     </row>
+    <row r="108" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A108"/>
+      <c r="B108"/>
+      <c r="C108"/>
+      <c r="D108"/>
+      <c r="E108"/>
+      <c r="F108"/>
+      <c r="G108"/>
+      <c r="H108"/>
+      <c r="I108"/>
+      <c r="J108"/>
+      <c r="K108"/>
+      <c r="L108"/>
+      <c r="M108"/>
+      <c r="N108"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:N107" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A1:N108" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/utilities/Excel_Sheets/Products/EO_MISC.xlsx
+++ b/utilities/Excel_Sheets/Products/EO_MISC.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="79">
   <si>
     <t>Test_Scenario</t>
   </si>
@@ -264,6 +264,9 @@
   </si>
   <si>
     <t>Arbitrators_Mediators_NO_DQ</t>
+  </si>
+  <si>
+    <t>Janice Quinn</t>
   </si>
 </sst>
 </file>
@@ -746,7 +749,7 @@
       </c>
       <c r="C2" s="6">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43296</v>
       </c>
       <c r="D2" s="4">
         <v>0</v>
@@ -1690,10 +1693,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N108"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1769,7 +1772,7 @@
       </c>
       <c r="C2" s="6">
         <f ca="1">TODAY()</f>
-        <v>43262</v>
+        <v>43296</v>
       </c>
       <c r="D2" s="4">
         <v>0</v>
@@ -1787,7 +1790,7 @@
         <v>75</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>5</v>
+        <v>78</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>6</v>
